--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,20 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +490,19 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -496,10 +518,16 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -105,11 +105,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>####</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePassword2Error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getUnUserdUserNname()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -510,19 +510,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
